--- a/WinStock_project/manage/0902/winstock_개발이슈.xlsx
+++ b/WinStock_project/manage/0902/winstock_개발이슈.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\WinStock_project\manage\0831\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mandleda\WinStock_project\manage\0902\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C56E29-2911-4012-A3AD-71E2515758D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAC4F69-790D-4B20-A607-2E0847557101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="6840" windowWidth="16260" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="184">
   <si>
     <t>개발구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,6 +1263,55 @@
   </si>
   <si>
     <t>div_refresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부 변수 하드코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMSI_DATE1 = 3
+GAMSI_DATE2 = 5
+CLIENT_WAIT_TIME = 60
+TY_IP = '192.168.123.100'
+DH_IP = '192.168.0.7'
+CUSTOM_IP = '1.242.216.122'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.real_log_widget.addItem("수신자 : " + name + ", 메세지 : " + data + "전송 완료")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매 전송시 클라이언트 이름 로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if s_gubun == 0 :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnReceiveChejanData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도수구분 키에러 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def div_refresh(self):
+        global div_stock_data
+        for i in div_stock_data :
+            logger.debug("opt10001 호출 : "+str(i))
+            self.OPT10001(i)
+            self.one_stock_flag = False
+            while self.one_stock_flag is False:
+                pythoncom.PumpWaitingMessages()
+                time.sleep(0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr데이터 현재가 가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,9 +1964,9 @@
   <dimension ref="B1:I195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3059,41 +3108,61 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" ht="99">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="H75" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="148.5">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="2"/>
